--- a/PythonExport.xlsx
+++ b/PythonExport.xlsx
@@ -67,12 +67,12 @@
     <t>Nigeria</t>
   </si>
   <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
     <t>Ireland</t>
   </si>
   <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
     <t>Malaysia</t>
   </si>
   <si>
@@ -94,12 +94,12 @@
     <t>Uganda</t>
   </si>
   <si>
+    <t>Qatar</t>
+  </si>
+  <si>
     <t>Oman</t>
   </si>
   <si>
-    <t>Qatar</t>
-  </si>
-  <si>
     <t>Italy</t>
   </si>
   <si>
@@ -112,306 +112,306 @@
     <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
+    <t>Ghana</t>
+  </si>
+  <si>
     <t>Belgium</t>
   </si>
   <si>
-    <t>Ghana</t>
-  </si>
-  <si>
     <t>Indonesia</t>
   </si>
   <si>
     <t>Jamaica</t>
   </si>
   <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>Netherlands (Holland, Europe)</t>
+  </si>
+  <si>
     <t>China</t>
   </si>
   <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Netherlands (Holland, Europe)</t>
-  </si>
-  <si>
     <t>Tanzania</t>
   </si>
   <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
     <t>Hong Kong</t>
   </si>
   <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
     <t>Lesotho</t>
   </si>
   <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
     <t>Bahrain</t>
   </si>
   <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Turkey</t>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Austria</t>
   </si>
   <si>
     <t>Spain</t>
   </si>
   <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Brunei</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
     <t>Swaziland</t>
   </si>
   <si>
-    <t>Lebanon</t>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
   </si>
   <si>
     <t>Portugal</t>
   </si>
   <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
-    <t>Malta</t>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Brazil</t>
   </si>
   <si>
     <t>Nepal</t>
   </si>
   <si>
-    <t>Barbados</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Algeria</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>Brazil</t>
+    <t>Bosnia &amp; Herzegovina</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
   </si>
   <si>
     <t>Cyprus</t>
   </si>
   <si>
+    <t>Benin</t>
+  </si>
+  <si>
     <t>Mauritius</t>
   </si>
   <si>
-    <t>Bosnia &amp; Herzegovina</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Benin</t>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Maldives</t>
   </si>
   <si>
     <t>American Samoa</t>
   </si>
   <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>Korea South</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
     <t>Libya</t>
   </si>
   <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
     <t>Finland</t>
   </si>
   <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Korea South</t>
-  </si>
-  <si>
-    <t>Maldives</t>
+    <t>Republic of Serbia</t>
   </si>
   <si>
     <t>Luxembourg</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Bahamas</t>
-  </si>
-  <si>
-    <t>Anguilla</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
-    <t>Iran</t>
-  </si>
-  <si>
-    <t>Republic of Serbia</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Chile</t>
   </si>
   <si>
     <t>Belarus</t>
   </si>
   <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Curacao</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
     <t>Cook Islands</t>
   </si>
   <si>
-    <t>Bermuda</t>
-  </si>
-  <si>
-    <t>Bolivia</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Angola</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>Burundi</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>Venezuela</t>
-  </si>
-  <si>
-    <t>Curacao</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Latvia</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Andorra</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <t>Bhutan</t>
-  </si>
-  <si>
-    <t>Grenada</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
     <t>29.0%</t>
   </si>
   <si>
@@ -532,22 +532,22 @@
     <t>Petrochemicals / mining</t>
   </si>
   <si>
+    <t>Hospitality &amp; Leisure</t>
+  </si>
+  <si>
     <t>Defence</t>
   </si>
   <si>
-    <t>Hospitality &amp; Leisure</t>
+    <t>Pharmaceuticals</t>
   </si>
   <si>
     <t>Media</t>
   </si>
   <si>
-    <t>Pharmaceuticals</t>
+    <t>Legal</t>
   </si>
   <si>
     <t>Property</t>
-  </si>
-  <si>
-    <t>Legal</t>
   </si>
   <si>
     <t>Publishing</t>
